--- a/biology/Zoologie/Caprinae/Caprinae.xlsx
+++ b/biology/Zoologie/Caprinae/Caprinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caprini · Caprinés, Caprins
 Les Caprinés (Caprinae) ou Caprins sont une sous-famille de Bovidés qui comprend notamment les chèvres, les moutons et les chamois.
@@ -513,7 +525,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue plusieurs genres et espèces :
 Ammotragus Blyth, 1840.
@@ -603,14 +617,16 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Caprinae forment un clade des Aegodontia (bovidés à dents de chèvres). D'autres auteurs parlent de Caprini formant un clade des Antilopinae lato sensu.
-Phylogénie des Bovidés par tribus, d'après Calamari (2021)[1] :
-Les caprinés résultent d'une rapide adaptation, il y a 11 Ma, à la vie montagnarde par réduction de leur métacarpes à la suite de leur isolement dans les montagnes du mégarchipel entre les mers Méditerranée et Paratéthys[2].
-Leur rapide radiation explique la difficulté de définir un arbre phylogénétique précis des caprinés. On distingue clairement une lignée d'ovibovins rassemblant les genres Ovibos, Nemorhaedus et Capricornis, une autre d'ovins (genres Ovis et Nilgiritragus) dont les Budorcas[3] ou les Myotragus†[4] pourraient être un précurseur et enfin la lignée des chèvres (Pseudois, Hemitragus et Capra). En revanche, on n'arrive pas encore à placer de façon stable les genres Rupicapra, Ammotragus, Oreamnos ou Arabitragus.
+Phylogénie des Bovidés par tribus, d'après Calamari (2021) :
+Les caprinés résultent d'une rapide adaptation, il y a 11 Ma, à la vie montagnarde par réduction de leur métacarpes à la suite de leur isolement dans les montagnes du mégarchipel entre les mers Méditerranée et Paratéthys.
+Leur rapide radiation explique la difficulté de définir un arbre phylogénétique précis des caprinés. On distingue clairement une lignée d'ovibovins rassemblant les genres Ovibos, Nemorhaedus et Capricornis, une autre d'ovins (genres Ovis et Nilgiritragus) dont les Budorcas ou les Myotragus† pourraient être un précurseur et enfin la lignée des chèvres (Pseudois, Hemitragus et Capra). En revanche, on n'arrive pas encore à placer de façon stable les genres Rupicapra, Ammotragus, Oreamnos ou Arabitragus.
 N.B. les positions phylogénétiques d'Ammotragus, Arabitragus, Oreamnos ou Rupicapra restent incertaines.
-Relations internes de Caprinae basées sur l'ADN mitochondrial[5].
+Relations internes de Caprinae basées sur l'ADN mitochondrial.
 </t>
         </is>
       </c>
